--- a/certificate_server/file.xlsx
+++ b/certificate_server/file.xlsx
@@ -88,7 +88,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -488,7 +488,7 @@
     <col min="4" max="4" style="10" width="21.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -530,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -544,7 +544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5">
         <v>5</v>
       </c>
